--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4CF28C-BB4F-4625-B44F-A0A1D6EAFCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E2F20-88B4-4CE2-8265-646B87FBBF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="1875" windowWidth="18810" windowHeight="13215" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
+    <workbookView xWindow="-23640" yWindow="1605" windowWidth="23265" windowHeight="17910" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
   <si>
     <t>Price</t>
   </si>
@@ -333,12 +333,39 @@
   </si>
   <si>
     <t>cRPO</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -390,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -412,13 +439,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{386E31FD-1719-462D-A463-AC7363BFC891}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -492,9 +522,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -532,7 +562,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -638,7 +668,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -780,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,7 +828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C29079-183A-4E00-8AC0-8BABADD9CBE7}">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -810,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>440</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -836,7 +868,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>88000</v>
+        <v>162200</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -872,7 +904,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>84074</v>
+        <v>158274</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -971,13 +1003,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143D2949-B187-4CCE-8902-FF8193720176}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="T72" sqref="T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -987,12 +1019,12 @@
     <col min="3" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1061,32 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1051,7 +1107,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1072,7 +1128,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1093,7 +1149,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1107,7 +1163,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
@@ -1126,7 +1182,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
@@ -1145,7 +1201,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
@@ -1166,7 +1222,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
@@ -1177,7 +1233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1199,8 +1255,14 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="2">
+        <v>2075</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1220,8 +1282,14 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="2">
+        <v>75</v>
+      </c>
+      <c r="T12" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1236,15 +1304,48 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8">
-        <f>+K11+K12</f>
+      <c r="K13" s="7">
+        <f t="shared" ref="K13:S13" si="0">+K11+K12</f>
         <v>1722</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>2150</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <f>+T11+T12</f>
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1265,8 +1366,14 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="2">
+        <v>471</v>
+      </c>
+      <c r="T14" s="2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1288,8 +1395,16 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="2">
+        <f>+P13-P14</f>
+        <v>1679</v>
+      </c>
+      <c r="T15" s="2">
+        <f>+T13-T14</f>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1309,8 +1424,14 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="2">
+        <v>832</v>
+      </c>
+      <c r="T16" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1451,14 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="2">
+        <v>521</v>
+      </c>
+      <c r="T17" s="2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1351,8 +1478,14 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="2">
+        <v>209</v>
+      </c>
+      <c r="T18" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1374,8 +1507,16 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="2">
+        <f>SUM(P16:P18)</f>
+        <v>1562</v>
+      </c>
+      <c r="T19" s="2">
+        <f>SUM(T16:T18)</f>
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1397,8 +1538,16 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="2">
+        <f>P15-P19</f>
+        <v>117</v>
+      </c>
+      <c r="T20" s="2">
+        <f>T15-T19</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -1420,8 +1569,16 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="2">
+        <f>74-17</f>
+        <v>57</v>
+      </c>
+      <c r="T21" s="2">
+        <f>104-10</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1443,8 +1600,16 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="2">
+        <f>+P20+P21</f>
+        <v>174</v>
+      </c>
+      <c r="T22" s="2">
+        <f>+T20+T21</f>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1464,8 +1629,14 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1487,8 +1658,16 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="2">
+        <f>+P22-P23</f>
+        <v>174</v>
+      </c>
+      <c r="T24" s="2">
+        <f>+T22-T23</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -1500,8 +1679,16 @@
         <f>K24/K26</f>
         <v>0.36982248520710059</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="1">
+        <f>+P24/P26</f>
+        <v>0.84878048780487803</v>
+      </c>
+      <c r="T25" s="1">
+        <f>+T24/T26</f>
+        <v>1.2596153846153846</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1521,8 +1708,14 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P26" s="2">
+        <v>205</v>
+      </c>
+      <c r="T26" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
@@ -1530,243 +1723,350 @@
         <f>K13/G13-1</f>
         <v>0.26617647058823524</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="T28" s="11">
+        <f>+T13/P13-1</f>
+        <v>0.22186046511627899</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K30" s="5">
         <f>2252+1762+1484</f>
         <v>5498</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="T30" s="2">
+        <f>2159+3254+3472</f>
+        <v>8885</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="5">
+        <v>824</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K32" s="5">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="5">
         <f>322+655</f>
         <v>977</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T32" s="2">
+        <f>482+928</f>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="5">
+        <v>282</v>
+      </c>
+      <c r="T33" s="2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K34" s="5">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K35" s="5">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+      <c r="T35" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36" s="5">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K37" s="5">
         <f>266+774</f>
         <v>1040</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T36" s="2">
+        <f>220+1239</f>
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="5">
+        <v>686</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K38" s="5">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="T38" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K39" s="5">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K40" s="5">
-        <f>SUM(K31:K39)</f>
+        <f>SUM(K30:K38)</f>
         <v>10993</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T39" s="2">
+        <f>SUM(T30:T38)</f>
+        <v>18207</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="5">
+        <v>166</v>
+      </c>
+      <c r="T41" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" s="5">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43" s="5">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="5">
         <f>3850+57</f>
         <v>3907</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+      <c r="T43" s="2">
+        <f>5615+85</f>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K44" s="5">
         <f>87+548</f>
         <v>635</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="T44" s="2">
+        <f>98+669</f>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K45" s="5">
         <f>88+1484</f>
         <v>1572</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T45" s="2">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="5">
+        <v>55</v>
+      </c>
+      <c r="T46" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K47" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+        <v>3997</v>
+      </c>
+      <c r="T47" s="2">
+        <v>8666</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48" s="5">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K49" s="5">
-        <f>SUM(K42:K48)</f>
+        <f>SUM(K41:K47)</f>
         <v>10993</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="T48" s="2">
+        <f>SUM(T41:T47)</f>
+        <v>18207</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K51" s="5">
         <f>+Model!K24</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T51" s="2">
+        <f>+T24</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" s="3">
+        <v>75</v>
+      </c>
+      <c r="T52">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="T53">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K54" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="T54">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="T55">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K56" s="3">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+      <c r="T56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K57" s="3">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="T57">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K58" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="K59" s="3">
         <f>562-137-46+69+21-203</f>
         <v>266</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+      <c r="T58">
+        <f>-216-141-146+65-82+149</f>
+        <v>-371</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>55</v>
       </c>
-      <c r="K60" s="5">
-        <f>SUM(K53:K59)</f>
+      <c r="K59" s="5">
+        <f>SUM(K52:K58)</f>
         <v>863</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <f>SUM(T52:T58)</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="K61" s="3">
+        <v>-93</v>
+      </c>
+      <c r="T61">
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="K62" s="3">
-        <v>-93</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="T62">
+        <f>-31-9</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>57</v>
       </c>
@@ -1774,41 +2074,58 @@
         <f>-662-101+577-1</f>
         <v>-187</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T63">
+        <f>-1055-46+1040-8</f>
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>58</v>
       </c>
       <c r="K64" s="3">
-        <f>SUM(K62:K63)</f>
+        <f>SUM(K61:K63)</f>
         <v>-280</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T64">
+        <f>SUM(T61:T63)</f>
+        <v>-371</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>59</v>
       </c>
       <c r="K66" s="3">
         <v>-6</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>60</v>
       </c>
       <c r="K67" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T67">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>31</v>
       </c>
       <c r="K68" s="3">
         <v>-150</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>61</v>
       </c>
@@ -1816,22 +2133,33 @@
         <f>SUM(K66:K68)</f>
         <v>-51</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T69">
+        <f>SUM(T66:T68)</f>
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>62</v>
       </c>
       <c r="K70" s="3">
         <v>-5</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="T70">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="K71" s="5">
-        <f>+K69+K70+K64+K60</f>
+        <f>+K69+K70+K64+K59</f>
         <v>527</v>
+      </c>
+      <c r="T71">
+        <f>+T69+T64+T59+T70</f>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E2F20-88B4-4CE2-8265-646B87FBBF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4FC35F-AA99-4A1D-9B5E-88C84E62265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23640" yWindow="1605" windowWidth="23265" windowHeight="17910" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
+    <workbookView xWindow="-51495" yWindow="570" windowWidth="29955" windowHeight="20700" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -464,16 +464,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>46265</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>46265</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>55790</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -488,8 +488,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="28575"/>
-          <a:ext cx="0" cy="10963275"/>
+          <a:off x="12477751" y="104775"/>
+          <a:ext cx="0" cy="12360729"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C29079-183A-4E00-8AC0-8BABADD9CBE7}">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>811</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -868,7 +868,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>162200</v>
+        <v>191152</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -879,11 +879,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>2252+1762+1484</f>
-        <v>5498</v>
+        <v>8885</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -891,11 +890,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>88+1484</f>
-        <v>1572</v>
+        <v>1488</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -904,7 +902,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>158274</v>
+        <v>183755</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1005,11 +1003,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143D2949-B187-4CCE-8902-FF8193720176}">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O46" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T72" sqref="T72"/>
+      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
